--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.399543826956619</v>
+        <v>0.6755706666666667</v>
       </c>
       <c r="H2">
-        <v>0.399543826956619</v>
+        <v>2.026712</v>
       </c>
       <c r="I2">
-        <v>0.4426061232667254</v>
+        <v>0.3897021710091529</v>
       </c>
       <c r="J2">
-        <v>0.4426061232667254</v>
+        <v>0.3897021710091529</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.518760812441756</v>
+        <v>1.047294333333333</v>
       </c>
       <c r="N2">
-        <v>0.518760812441756</v>
+        <v>3.141883</v>
       </c>
       <c r="O2">
-        <v>0.2158942115168226</v>
+        <v>0.2943898468263134</v>
       </c>
       <c r="P2">
-        <v>0.2158942115168226</v>
+        <v>0.2943898468263134</v>
       </c>
       <c r="Q2">
-        <v>0.207267680278104</v>
+        <v>0.7075213309662222</v>
       </c>
       <c r="R2">
-        <v>0.207267680278104</v>
+        <v>6.367691978696</v>
       </c>
       <c r="S2">
-        <v>0.09555609999518727</v>
+        <v>0.1147243624312663</v>
       </c>
       <c r="T2">
-        <v>0.09555609999518727</v>
+        <v>0.1147243624312663</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.399543826956619</v>
+        <v>0.6755706666666667</v>
       </c>
       <c r="H3">
-        <v>0.399543826956619</v>
+        <v>2.026712</v>
       </c>
       <c r="I3">
-        <v>0.4426061232667254</v>
+        <v>0.3897021710091529</v>
       </c>
       <c r="J3">
-        <v>0.4426061232667254</v>
+        <v>0.3897021710091529</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.341078127588744</v>
+        <v>0.5210533333333333</v>
       </c>
       <c r="N3">
-        <v>0.341078127588744</v>
+        <v>1.56316</v>
       </c>
       <c r="O3">
-        <v>0.1419474865011583</v>
+        <v>0.1464658082318851</v>
       </c>
       <c r="P3">
-        <v>0.1419474865011583</v>
+        <v>0.1464658082318851</v>
       </c>
       <c r="Q3">
-        <v>0.1362756603880048</v>
+        <v>0.3520083477688888</v>
       </c>
       <c r="R3">
-        <v>0.1362756603880048</v>
+        <v>3.16807512992</v>
       </c>
       <c r="S3">
-        <v>0.06282682670773354</v>
+        <v>0.0570780434465759</v>
       </c>
       <c r="T3">
-        <v>0.06282682670773354</v>
+        <v>0.05707804344657589</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.399543826956619</v>
+        <v>0.6755706666666667</v>
       </c>
       <c r="H4">
-        <v>0.399543826956619</v>
+        <v>2.026712</v>
       </c>
       <c r="I4">
-        <v>0.4426061232667254</v>
+        <v>0.3897021710091529</v>
       </c>
       <c r="J4">
-        <v>0.4426061232667254</v>
+        <v>0.3897021710091529</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.54300831000489</v>
+        <v>0.3665986666666667</v>
       </c>
       <c r="N4">
-        <v>1.54300831000489</v>
+        <v>1.099796</v>
       </c>
       <c r="O4">
-        <v>0.642158301982019</v>
+        <v>0.1030492784041265</v>
       </c>
       <c r="P4">
-        <v>0.642158301982019</v>
+        <v>0.1030492784041265</v>
       </c>
       <c r="Q4">
-        <v>0.6164994452052188</v>
+        <v>0.2476633056391111</v>
       </c>
       <c r="R4">
-        <v>0.6164994452052188</v>
+        <v>2.228969750752</v>
       </c>
       <c r="S4">
-        <v>0.2842231965638046</v>
+        <v>0.04015852751501471</v>
       </c>
       <c r="T4">
-        <v>0.2842231965638046</v>
+        <v>0.0401585275150147</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.503163582529092</v>
+        <v>0.6755706666666667</v>
       </c>
       <c r="H5">
-        <v>0.503163582529092</v>
+        <v>2.026712</v>
       </c>
       <c r="I5">
-        <v>0.5573938767332746</v>
+        <v>0.3897021710091529</v>
       </c>
       <c r="J5">
-        <v>0.5573938767332746</v>
+        <v>0.3897021710091529</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.518760812441756</v>
+        <v>1.622562</v>
       </c>
       <c r="N5">
-        <v>0.518760812441756</v>
+        <v>4.867686</v>
       </c>
       <c r="O5">
-        <v>0.2158942115168226</v>
+        <v>0.456095066537675</v>
       </c>
       <c r="P5">
-        <v>0.2158942115168226</v>
+        <v>0.456095066537675</v>
       </c>
       <c r="Q5">
-        <v>0.2610215488638963</v>
+        <v>1.096155292048</v>
       </c>
       <c r="R5">
-        <v>0.2610215488638963</v>
+        <v>9.865397628432</v>
       </c>
       <c r="S5">
-        <v>0.1203381115216353</v>
+        <v>0.177741237616296</v>
       </c>
       <c r="T5">
-        <v>0.1203381115216353</v>
+        <v>0.177741237616296</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.503163582529092</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H6">
-        <v>0.503163582529092</v>
+        <v>1.414049</v>
       </c>
       <c r="I6">
-        <v>0.5573938767332746</v>
+        <v>0.2718975193383775</v>
       </c>
       <c r="J6">
-        <v>0.5573938767332746</v>
+        <v>0.2718975193383774</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.341078127588744</v>
+        <v>1.047294333333333</v>
       </c>
       <c r="N6">
-        <v>0.341078127588744</v>
+        <v>3.141883</v>
       </c>
       <c r="O6">
-        <v>0.1419474865011583</v>
+        <v>0.2943898468263134</v>
       </c>
       <c r="P6">
-        <v>0.1419474865011583</v>
+        <v>0.2943898468263134</v>
       </c>
       <c r="Q6">
-        <v>0.1716180925998672</v>
+        <v>0.4936418349185555</v>
       </c>
       <c r="R6">
-        <v>0.1716180925998672</v>
+        <v>4.442776514267</v>
       </c>
       <c r="S6">
-        <v>0.07912065979342481</v>
+        <v>0.08004386907047951</v>
       </c>
       <c r="T6">
-        <v>0.07912065979342481</v>
+        <v>0.0800438690704795</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,681 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.503163582529092</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H7">
-        <v>0.503163582529092</v>
+        <v>1.414049</v>
       </c>
       <c r="I7">
-        <v>0.5573938767332746</v>
+        <v>0.2718975193383775</v>
       </c>
       <c r="J7">
-        <v>0.5573938767332746</v>
+        <v>0.2718975193383774</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.54300831000489</v>
+        <v>0.5210533333333333</v>
       </c>
       <c r="N7">
-        <v>1.54300831000489</v>
+        <v>1.56316</v>
       </c>
       <c r="O7">
-        <v>0.642158301982019</v>
+        <v>0.1464658082318851</v>
       </c>
       <c r="P7">
-        <v>0.642158301982019</v>
+        <v>0.1464658082318851</v>
       </c>
       <c r="Q7">
-        <v>0.7763855891342202</v>
+        <v>0.2455983149822221</v>
       </c>
       <c r="R7">
-        <v>0.7763855891342202</v>
+        <v>2.21038483484</v>
       </c>
       <c r="S7">
-        <v>0.3579351054182144</v>
+        <v>0.03982368992614007</v>
       </c>
       <c r="T7">
-        <v>0.3579351054182144</v>
+        <v>0.03982368992614006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.4713496666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.414049</v>
+      </c>
+      <c r="I8">
+        <v>0.2718975193383775</v>
+      </c>
+      <c r="J8">
+        <v>0.2718975193383774</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.3665986666666667</v>
+      </c>
+      <c r="N8">
+        <v>1.099796</v>
+      </c>
+      <c r="O8">
+        <v>0.1030492784041265</v>
+      </c>
+      <c r="P8">
+        <v>0.1030492784041265</v>
+      </c>
+      <c r="Q8">
+        <v>0.1727961593337778</v>
+      </c>
+      <c r="R8">
+        <v>1.555165434004</v>
+      </c>
+      <c r="S8">
+        <v>0.02801884316769183</v>
+      </c>
+      <c r="T8">
+        <v>0.02801884316769182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4713496666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.414049</v>
+      </c>
+      <c r="I9">
+        <v>0.2718975193383775</v>
+      </c>
+      <c r="J9">
+        <v>0.2718975193383774</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.622562</v>
+      </c>
+      <c r="N9">
+        <v>4.867686</v>
+      </c>
+      <c r="O9">
+        <v>0.456095066537675</v>
+      </c>
+      <c r="P9">
+        <v>0.456095066537675</v>
+      </c>
+      <c r="Q9">
+        <v>0.764794057846</v>
+      </c>
+      <c r="R9">
+        <v>6.883146520613999</v>
+      </c>
+      <c r="S9">
+        <v>0.124011117174066</v>
+      </c>
+      <c r="T9">
+        <v>0.124011117174066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.08256733333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.247702</v>
+      </c>
+      <c r="I10">
+        <v>0.04762887236238261</v>
+      </c>
+      <c r="J10">
+        <v>0.04762887236238261</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.047294333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.141883</v>
+      </c>
+      <c r="O10">
+        <v>0.2943898468263134</v>
+      </c>
+      <c r="P10">
+        <v>0.2943898468263134</v>
+      </c>
+      <c r="Q10">
+        <v>0.08647230031844444</v>
+      </c>
+      <c r="R10">
+        <v>0.778250702866</v>
+      </c>
+      <c r="S10">
+        <v>0.01402145643927185</v>
+      </c>
+      <c r="T10">
+        <v>0.01402145643927184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.08256733333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.247702</v>
+      </c>
+      <c r="I11">
+        <v>0.04762887236238261</v>
+      </c>
+      <c r="J11">
+        <v>0.04762887236238261</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.5210533333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.56316</v>
+      </c>
+      <c r="O11">
+        <v>0.1464658082318851</v>
+      </c>
+      <c r="P11">
+        <v>0.1464658082318851</v>
+      </c>
+      <c r="Q11">
+        <v>0.04302198425777777</v>
+      </c>
+      <c r="R11">
+        <v>0.3871978583199999</v>
+      </c>
+      <c r="S11">
+        <v>0.006976001285729666</v>
+      </c>
+      <c r="T11">
+        <v>0.006976001285729664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.08256733333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.247702</v>
+      </c>
+      <c r="I12">
+        <v>0.04762887236238261</v>
+      </c>
+      <c r="J12">
+        <v>0.04762887236238261</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.3665986666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.099796</v>
+      </c>
+      <c r="O12">
+        <v>0.1030492784041265</v>
+      </c>
+      <c r="P12">
+        <v>0.1030492784041265</v>
+      </c>
+      <c r="Q12">
+        <v>0.03026907431022222</v>
+      </c>
+      <c r="R12">
+        <v>0.272421668792</v>
+      </c>
+      <c r="S12">
+        <v>0.004908120928145771</v>
+      </c>
+      <c r="T12">
+        <v>0.004908120928145771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.08256733333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.247702</v>
+      </c>
+      <c r="I13">
+        <v>0.04762887236238261</v>
+      </c>
+      <c r="J13">
+        <v>0.04762887236238261</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.622562</v>
+      </c>
+      <c r="N13">
+        <v>4.867686</v>
+      </c>
+      <c r="O13">
+        <v>0.456095066537675</v>
+      </c>
+      <c r="P13">
+        <v>0.456095066537675</v>
+      </c>
+      <c r="Q13">
+        <v>0.133970617508</v>
+      </c>
+      <c r="R13">
+        <v>1.205735557572</v>
+      </c>
+      <c r="S13">
+        <v>0.02172329370923533</v>
+      </c>
+      <c r="T13">
+        <v>0.02172329370923532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5040686666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.512206</v>
+      </c>
+      <c r="I14">
+        <v>0.2907714372900871</v>
+      </c>
+      <c r="J14">
+        <v>0.2907714372900871</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.047294333333333</v>
+      </c>
+      <c r="N14">
+        <v>3.141883</v>
+      </c>
+      <c r="O14">
+        <v>0.2943898468263134</v>
+      </c>
+      <c r="P14">
+        <v>0.2943898468263134</v>
+      </c>
+      <c r="Q14">
+        <v>0.5279082582108888</v>
+      </c>
+      <c r="R14">
+        <v>4.751174323898</v>
+      </c>
+      <c r="S14">
+        <v>0.08560015888529574</v>
+      </c>
+      <c r="T14">
+        <v>0.08560015888529574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5040686666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.512206</v>
+      </c>
+      <c r="I15">
+        <v>0.2907714372900871</v>
+      </c>
+      <c r="J15">
+        <v>0.2907714372900871</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5210533333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.56316</v>
+      </c>
+      <c r="O15">
+        <v>0.1464658082318851</v>
+      </c>
+      <c r="P15">
+        <v>0.1464658082318851</v>
+      </c>
+      <c r="Q15">
+        <v>0.2626466589955555</v>
+      </c>
+      <c r="R15">
+        <v>2.36381993096</v>
+      </c>
+      <c r="S15">
+        <v>0.04258807357343952</v>
+      </c>
+      <c r="T15">
+        <v>0.04258807357343952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5040686666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.512206</v>
+      </c>
+      <c r="I16">
+        <v>0.2907714372900871</v>
+      </c>
+      <c r="J16">
+        <v>0.2907714372900871</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.3665986666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.099796</v>
+      </c>
+      <c r="O16">
+        <v>0.1030492784041265</v>
+      </c>
+      <c r="P16">
+        <v>0.1030492784041265</v>
+      </c>
+      <c r="Q16">
+        <v>0.1847909011084444</v>
+      </c>
+      <c r="R16">
+        <v>1.663118109976</v>
+      </c>
+      <c r="S16">
+        <v>0.0299637867932742</v>
+      </c>
+      <c r="T16">
+        <v>0.02996378679327419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5040686666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.512206</v>
+      </c>
+      <c r="I17">
+        <v>0.2907714372900871</v>
+      </c>
+      <c r="J17">
+        <v>0.2907714372900871</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.622562</v>
+      </c>
+      <c r="N17">
+        <v>4.867686</v>
+      </c>
+      <c r="O17">
+        <v>0.456095066537675</v>
+      </c>
+      <c r="P17">
+        <v>0.456095066537675</v>
+      </c>
+      <c r="Q17">
+        <v>0.8178826639239999</v>
+      </c>
+      <c r="R17">
+        <v>7.360943975315999</v>
+      </c>
+      <c r="S17">
+        <v>0.1326194180380777</v>
+      </c>
+      <c r="T17">
+        <v>0.1326194180380777</v>
       </c>
     </row>
   </sheetData>
